--- a/EazyRP_project/src/main/webapp/resources/forms/A.xlsx
+++ b/EazyRP_project/src/main/webapp/resources/forms/A.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\최종프로젝트\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="10728" windowHeight="6996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>출장보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,31 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023년 2월 22일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023년 2월 22년 ~ 2023년 8월 23일 (180일간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -260,13 +236,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,34 +287,46 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -330,55 +344,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>489850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="209550"/>
-          <a:ext cx="1181100" cy="489850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -459,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -636,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -644,370 +609,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.59765625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A15:A24"/>
+  <mergeCells count="14">
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>